--- a/medicine/Enfance/Les_Désastreuses_Aventures_des_orphelins_Baudelaire/Les_Désastreuses_Aventures_des_orphelins_Baudelaire.xlsx
+++ b/medicine/Enfance/Les_Désastreuses_Aventures_des_orphelins_Baudelaire/Les_Désastreuses_Aventures_des_orphelins_Baudelaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
+          <t>Les_Désastreuses_Aventures_des_orphelins_Baudelaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Désastreuses Aventures des orphelins Baudelaire[1] (A Series of Unfortunate Events en version originale) est une série littéraire pour la jeunesse écrite par Lemony Snicket, hétéronyme de l’écrivain américain Daniel Handler, illustrés par Brett Helquist. La suite romanesque est composée de treize tomes, publiés entre 1999 et 2006. En France, la série est traduite par Rose-Marie Vassallo et publiée aux éditions Nathan.
+Les Désastreuses Aventures des orphelins Baudelaire (A Series of Unfortunate Events en version originale) est une série littéraire pour la jeunesse écrite par Lemony Snicket, hétéronyme de l’écrivain américain Daniel Handler, illustrés par Brett Helquist. La suite romanesque est composée de treize tomes, publiés entre 1999 et 2006. En France, la série est traduite par Rose-Marie Vassallo et publiée aux éditions Nathan.
 La série décrit les malheurs de trois enfants, Violette, Klaus et Prunille, après l'incendie qui a coûté la vie de leurs parents. Si leur persévérance leur permet régulièrement d'échapper aux manigances du comte Olaf, personnage machiavélique prêt à tout pour s'emparer de leur fortune, leurs talents respectifs ne réussissent pas à les sortir d'une série de catastrophes en tous genres.
-La série s'est fait, entre autres, connaître pour sa narration résolument pessimiste, son humour noir, son narrateur méta-fictif Lemony Snicket, et ses références constantes à la littérature et la culture en général[2]. Traduits en 41 langues à ce jour, on estime que plus de 55 millions d'exemplaires de ces romans ont été vendus à travers le monde[3],[4] 
+La série s'est fait, entre autres, connaître pour sa narration résolument pessimiste, son humour noir, son narrateur méta-fictif Lemony Snicket, et ses références constantes à la littérature et la culture en général. Traduits en 41 langues à ce jour, on estime que plus de 55 millions d'exemplaires de ces romans ont été vendus à travers le monde, 
 Chaque roman est divisé en treize chapitres, à l'exception du dernier qui en possède quatorze.
 </t>
         </is>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
+          <t>Les_Désastreuses_Aventures_des_orphelins_Baudelaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Liste des ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tout commence mal..., Nathan, 2002 ((en) The Bad Beginning, 1999)  (ISBN 2092823531)Titre québécois : Nés sous une mauvaise étoile
 Le Laboratoire aux serpents, Nathan, 2002 ((en) The Reptile Room, 1999)  (ISBN 2092110349)Titre québécois : Le laboratoire aux reptiles
@@ -529,43 +543,113 @@
 La Pente glissante, Nathan, 2005 ((en) The Slippery Slope, 2003)  (ISBN 2092504312)
 La Grotte Gorgone, Nathan, 2005 ((en) The Grim Grotto, 2004)  (ISBN 2092506781)
 Le Pénultième Péril, Nathan, 2006 ((en) The Penultimate Peril, 2005)  (ISBN 209250679X)
-La Fin, Nathan, 2007 ((en) The End, 2006)  (ISBN 2092506803)
-Hors-série
-Lemony Snicket : L'autobiographie non autorisée, Nathan, 2005 ((en) Lemony Snicket: The Unauthorized Autobiography, 2002)  (ISBN 2092508679)
-(en) The Beatrice Letters, 2006Non traduit en français
-État de la traduction
-La traduction québécoise de la série est en fait une réadaptation de la traduction française de Rose-Marie Vassallo (justifiée par les différences linguistiques).
+La Fin, Nathan, 2007 ((en) The End, 2006)  (ISBN 2092506803)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Les_Désastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des ouvrages</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hors-série</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lemony Snicket : L'autobiographie non autorisée, Nathan, 2005 ((en) Lemony Snicket: The Unauthorized Autobiography, 2002)  (ISBN 2092508679)
+(en) The Beatrice Letters, 2006Non traduit en français</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Les_Désastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>État de la traduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La traduction québécoise de la série est en fait une réadaptation de la traduction française de Rose-Marie Vassallo (justifiée par les différences linguistiques).
 The Beatrice Letters n'a pas encore été traduit, et le projet semble abandonné ; bien qu'aucune annonce officielle n'ait été faite par Nathan, Rose-Marie Vassallo a pu évoquer la difficulté de commercialiser le produit ainsi que des problèmes de traduction difficilement surmontables (le livre est organisé en partie sur des jeux de mots parfois intraduisibles). La France demeure néanmoins un des rares pays à avoir réalisé une traduction de l'Autobiographie.
 Bien que des éditions "de luxe" des deux premiers tomes aient été lancées par Nathan, elles ne comportent pas les nouvelles annotations de Lemony Snicket qu'on peut trouver dans leur équivalent original, The Bad Beginning : Rare Edition.
 La traduction de Rose-Marie Vassallo est controversée car elle semble supprimer certains passages s'adressant à un public adulte.</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Désastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Auteur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Lemony Snicket est l’hétéronyme de Daniel Handler, un écrivain qui a commencé par écrire des romans pour adultes avant d'acquérir une grande notoriété au Canada et aux États-Unis, puis en Europe grâce aux Désastreuses Aventures des orphelins Baudelaire.
 Lemony Snicket, né aux États-Unis, habiterait aujourd'hui à San Francisco, mais protégerait jalousement sa vie privée : « Lemony Snicket n'apparaît jamais en public, car il est l'objet d'une conspiration sur le web ». C'est donc Daniel Handler qui remplit ses obligations à sa place.
@@ -574,69 +658,181 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Désastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Violette Baudelaire
-Aînée du trio Baudelaire, quatorze ans, droitière, Violette est très douée pour inventer des objets ingénieux  avec tout ce qu’elle peut trouver. Pour réfléchir, l’aînée s’attache les cheveux avec un ruban afin de ne pas avoir les cheveux dans le visage comme le faisait sa mère. Elle adore faire des ricochets. Elle  souffre d'une allergie aux bonbons à la menthe, qui se traduit par une crise d'urticaire violente et instantanée. Elle aurait hérité cette allergie de ses deux parents. La couleur qu'elle déteste le plus est le rose vif. Elle aime profondément son frère et sa sœur et fait tout pour les protéger, parfois au péril de sa propre vie.
-Klaus Baudelaire
-L’unique garçon du trio, douze ans (il a treize ans dans le tome 7, L'arbre aux corbeaux), porte des lunettes rondes. Klaus adore lire et surtout apprendre. Il est très intelligent et retient tout ce qu'il lit. Comme ses sœurs, Klaus souffre d’une allergie aux bonbons à la menthe, qui se traduit par un gonflement instantané de sa langue, ce qui gêne son élocution. Il aurait hérité cette allergie de ses deux parents. Comme sa sœur Violette, la couleur qu’il déteste le plus est le rose bonbon. Comparé à sa sœur Violette, Klaus est un peu moins courageux, panique plus vite et tend à se plaindre beaucoup plus facilement. Dans le tome 1 on apprend qu'à la naissance de sa sœur Prunille, Klaus la détestait mais quand elle eut six semaines, Klaus et elle s'entendaient à merveille.
-Prunille Baudelaire
-La benjamine adore mordre tout ce qui se présente. Prunille a quatre petites dents aussi tranchantes que de l'acier. Comme elle ne sait pas parler, elle s’exprime dans un babillage que seuls sa sœur et son frère peuvent comprendre. Prunille n'aime pas mordre les choses molles. Dans le dixième tome elle se découvre une passion pour la cuisine, passion qu'elle développera dans les quatre derniers tomes. Sa première création est la pointe de cannelle dans le chocolat. Prunille est allergique aux bonbons à la menthe, comme sa sœur et son frère en ayant les mêmes symptômes que son frère, sa sœur, ou les deux en même temps.
-Le comte Olaf
-Le comte Olaf est dans le tome 1 le nouveau tuteur légal des orphelins. Il est méchant, vil, insensible, incendiaire, usurpateur et menteur. Il a un œil tatoué sur sa cheville gauche. Il est très grand, très maigre et son costume est gris comme un rat et maculé de taches. Son menton n’est pas rasé et il a un mono sourcil. Il est le directeur d'une troupe de théâtre qui comprend un chauve au long nez, deux femmes au visage si poudré de blanc qu’on les prendrait pour des fantômes, un homme violent avec des crochets à la place des mains, une créature si obèse qu’elle ne semble ni homme ni femme et Esmé qui deviendra la petite amie d'Olaf. Sont ensuite recrutés par Esmé : Otto, Bretzella et Féval, des monstres de Caligaries Folies.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Violette Baudelaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aînée du trio Baudelaire, quatorze ans, droitière, Violette est très douée pour inventer des objets ingénieux  avec tout ce qu’elle peut trouver. Pour réfléchir, l’aînée s’attache les cheveux avec un ruban afin de ne pas avoir les cheveux dans le visage comme le faisait sa mère. Elle adore faire des ricochets. Elle  souffre d'une allergie aux bonbons à la menthe, qui se traduit par une crise d'urticaire violente et instantanée. Elle aurait hérité cette allergie de ses deux parents. La couleur qu'elle déteste le plus est le rose vif. Elle aime profondément son frère et sa sœur et fait tout pour les protéger, parfois au péril de sa propre vie.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Désastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Klaus Baudelaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’unique garçon du trio, douze ans (il a treize ans dans le tome 7, L'arbre aux corbeaux), porte des lunettes rondes. Klaus adore lire et surtout apprendre. Il est très intelligent et retient tout ce qu'il lit. Comme ses sœurs, Klaus souffre d’une allergie aux bonbons à la menthe, qui se traduit par un gonflement instantané de sa langue, ce qui gêne son élocution. Il aurait hérité cette allergie de ses deux parents. Comme sa sœur Violette, la couleur qu’il déteste le plus est le rose bonbon. Comparé à sa sœur Violette, Klaus est un peu moins courageux, panique plus vite et tend à se plaindre beaucoup plus facilement. Dans le tome 1 on apprend qu'à la naissance de sa sœur Prunille, Klaus la détestait mais quand elle eut six semaines, Klaus et elle s'entendaient à merveille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Désastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Prunille Baudelaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La benjamine adore mordre tout ce qui se présente. Prunille a quatre petites dents aussi tranchantes que de l'acier. Comme elle ne sait pas parler, elle s’exprime dans un babillage que seuls sa sœur et son frère peuvent comprendre. Prunille n'aime pas mordre les choses molles. Dans le dixième tome elle se découvre une passion pour la cuisine, passion qu'elle développera dans les quatre derniers tomes. Sa première création est la pointe de cannelle dans le chocolat. Prunille est allergique aux bonbons à la menthe, comme sa sœur et son frère en ayant les mêmes symptômes que son frère, sa sœur, ou les deux en même temps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_Désastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Le comte Olaf</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le comte Olaf est dans le tome 1 le nouveau tuteur légal des orphelins. Il est méchant, vil, insensible, incendiaire, usurpateur et menteur. Il a un œil tatoué sur sa cheville gauche. Il est très grand, très maigre et son costume est gris comme un rat et maculé de taches. Son menton n’est pas rasé et il a un mono sourcil. Il est le directeur d'une troupe de théâtre qui comprend un chauve au long nez, deux femmes au visage si poudré de blanc qu’on les prendrait pour des fantômes, un homme violent avec des crochets à la place des mains, une créature si obèse qu’elle ne semble ni homme ni femme et Esmé qui deviendra la petite amie d'Olaf. Sont ensuite recrutés par Esmé : Otto, Bretzella et Féval, des monstres de Caligaries Folies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Les_Désastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Autres éléments de la série</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>La société VDC (VFD dans la version originale, SNPV au Québec)
 Liste des lieux
@@ -644,37 +840,77 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Les_Désastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allitérations
-Tous les titres de Lemony Snicket en version originale contiennent des allitérations (The Bad Beginning, The Ersatz Elevator, The Carnivorous Carnival...), également notables dans les noms de lieux (The Briny Beach, Damocles Dock, Heimlich Hospital, Gorgonian Grotto...), d'objets (The Medusoid Mycelium...) ou de personnages (Montgomery Montgomery, Quigley Quagmire, etc.).
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Allitérations</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les titres de Lemony Snicket en version originale contiennent des allitérations (The Bad Beginning, The Ersatz Elevator, The Carnivorous Carnival...), également notables dans les noms de lieux (The Briny Beach, Damocles Dock, Heimlich Hospital, Gorgonian Grotto...), d'objets (The Medusoid Mycelium...) ou de personnages (Montgomery Montgomery, Quigley Quagmire, etc.).
 Hélas, ces allitérations n'ont pas toujours pu être retranscrites dans la traduction française. Heureusement, la traductrice a toujours pu (pour les titres) remplacer les allitérations impossibles par des sonorités similaires (par exemple, les homéotéleutes "Panique à la clinique  ou "Ascenseur pour la peur).
-Style
-Lemony Snicket a un style narratif très particulier et immédiatement reconnaissable :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Les_Désastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Commentaires</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Style</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Lemony Snicket a un style narratif très particulier et immédiatement reconnaissable :
 L'humour caustique développé par l'auteur tourne parfois au cynisme, ce qui s'explique probablement par un passé émaillé de coups du sort et autres catastrophes. Cet état d'esprit nous vaut des commentaires amers tels que : « La triste vérité est que la vérité est triste... ».
 Il arrive souvent que Snicket anticipe sur la suite des évènements, ce qui ne l'empêche pas d'entretenir un certain suspense.
 Les surprises ne manquent pas au fil des pages : il peut arriver que celles-ci soient vierges de tout texte ou imprimées à l'envers.
@@ -686,9 +922,43 @@
 Tous les tomes sont dédicacés à Béatrice, une femme jadis aimée dont le destin semble intimement lié à celui des parents Baudelaire.
 Chaque prise de parole de Prunille, qui devrait nous sembler incompréhensible dans les premiers tomes de la série, est scrupuleusement "traduite" par Snicket. Au fil du temps, les propos tenus par la benjamine des Baudelaire deviennent toutefois riches d'une symbolique accessible aux lecteurs les plus avertis (leur sens reposant sur des allusions linguistiques ou culturelles souvent subtiles; par exemple, au lieu de "de rien", elle dit: "Denada", c'est-à-dire la même chose en espagnol), mais l'auteur continue à les interpréter.
 Lemony Snicket ne se prive pas de critiquer et de parodier une certaine littérature enfantine dont il déplore la mièvrerie.
-Dans ses résumés, Lemony Snicket vise toujours à dissuader le lecteur de prêter une quelconque attention à ses livres (par exemple quand il dit: "Je te conseillerais bien de jeter ce livre", tome 8), ce qui participe sans doute d'une démarche cherchant à obtenir le résultat inverse, consistant à pousser le lecteur à poursuivre la découverte de ses livres.
-Divers
-La série est organisée en treize tomes comportant treize chapitres chacun. Censé porter malheur, ce nombre est d'ailleurs récurrent au sein même des ouvrages.
+Dans ses résumés, Lemony Snicket vise toujours à dissuader le lecteur de prêter une quelconque attention à ses livres (par exemple quand il dit: "Je te conseillerais bien de jeter ce livre", tome 8), ce qui participe sans doute d'une démarche cherchant à obtenir le résultat inverse, consistant à pousser le lecteur à poursuivre la découverte de ses livres.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Les_Désastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Commentaires</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série est organisée en treize tomes comportant treize chapitres chacun. Censé porter malheur, ce nombre est d'ailleurs récurrent au sein même des ouvrages.
 Dans le même ordre d'idées, la treizième et dernière aventure des orphelins Baudelaire était attendue un vendredi 13 (octobre) dans les librairies américaines.
 Sur les couvertures, on peut observer une frise ornant le cadre dont les motifs révèlent un des aspects du tome en question (des yeux pour le tome I, des serpents pour le tome II, des vagues pour le tome III..., ces dessins étant disponibles uniquement sur les livres grand format de Nathan).
 La dernière illustration fournit également un indice quant au contenu du tome suivant. Le lecteur doit donc se montrer attentif au moindre détail.
@@ -711,34 +981,36 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Les_Désastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_D%C3%A9sastreuses_Aventures_des_orphelins_Baudelaire</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Les Désastreuses Aventures des orphelins Baudelaire, film de Brad Silberling, est sorti en 2004, ce film reprend l'histoire des trois premiers tomes.
-Les Désastreuses Aventures des orphelins Baudelaire, série télévisée sortie le vendredi 13 janvier 2017 sur Netflix[5].</t>
+Les Désastreuses Aventures des orphelins Baudelaire, série télévisée sortie le vendredi 13 janvier 2017 sur Netflix.</t>
         </is>
       </c>
     </row>
